--- a/templates/pm2_rules_summary_template.xlsx
+++ b/templates/pm2_rules_summary_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e104200\Documents\PythonTest\Voltron\district_chrystal_report_website\hpms-validation\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677BEAF8-FD8E-457E-B6CB-BD64AB7F5109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E183F037-E010-42CA-9E8C-18D40820B1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
+    <workbookView xWindow="20370" yWindow="-4755" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
   <sheets>
     <sheet name="ruleDataItems" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="248">
   <si>
     <t>Rule</t>
   </si>
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GM111"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B39" sqref="B38:B39"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,15 +2974,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85.140625" style="1" customWidth="1"/>
@@ -3352,9 +3352,6 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-    </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
     </row>
@@ -3600,28 +3597,18 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H107" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B24:B108">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISREF(INDIRECT(A24&amp;"!A1"))</formula>
+  <conditionalFormatting sqref="B2:B23">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISREF(INDIRECT(SUBSTITUTE(A2, "-","")&amp;"!A1"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B23">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISREF(INDIRECT(SUBSTITUTE(A2, "-","")&amp;"!A1"))</formula>
+  <conditionalFormatting sqref="B24:B108">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>ISREF(INDIRECT(#REF!&amp;"!A1"))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
